--- a/test-data/LoginData.xlsx
+++ b/test-data/LoginData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="8">
   <si>
     <t>password</t>
   </si>
@@ -153,13 +153,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -524,7 +554,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="27">
+      <c r="C2" t="s" s="56">
         <v>7</v>
       </c>
     </row>
@@ -535,7 +565,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="57">
         <v>7</v>
       </c>
     </row>

--- a/test-data/LoginData.xlsx
+++ b/test-data/LoginData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="8">
   <si>
     <t>password</t>
   </si>
@@ -153,13 +153,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
@@ -554,7 +570,7 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="56">
+      <c r="C2" t="s" s="72">
         <v>7</v>
       </c>
     </row>
@@ -565,7 +581,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="57">
+      <c r="C3" t="s" s="73">
         <v>7</v>
       </c>
     </row>
